--- a/V.D.Overall Performance/clustering_performance.xlsx
+++ b/V.D.Overall Performance/clustering_performance.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="18">
   <si>
     <t>ARI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>100apps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150apps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUI2Vec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200apps</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1016,6 +1028,296 @@
       <c r="F31">
         <f>(F30-F29)/F29</f>
         <v>0.27999999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="C34">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="D34">
+        <v>0.377</v>
+      </c>
+      <c r="E34">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F34">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="C35">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="D35">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="E35">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F35">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="C36">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="D36">
+        <v>0.374</v>
+      </c>
+      <c r="E36">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F36">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="C37">
+        <v>0.53</v>
+      </c>
+      <c r="D37">
+        <v>0.49</v>
+      </c>
+      <c r="E37">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F37">
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.104</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.23599999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <f>(B38-B37)/B37</f>
+        <v>1.9780219780219797E-2</v>
+      </c>
+      <c r="C39">
+        <f>(C38-C37)/C37</f>
+        <v>5.2830188679245327E-2</v>
+      </c>
+      <c r="D39">
+        <f>(D38-D37)/D37</f>
+        <v>3.4693877551020443E-2</v>
+      </c>
+      <c r="E39">
+        <f>(E38-E37)/E37</f>
+        <v>0.23809523809523797</v>
+      </c>
+      <c r="F39">
+        <f>(F38-F37)/F37</f>
+        <v>0.19191919191919179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="C42">
+        <v>0.438</v>
+      </c>
+      <c r="D42">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="E42">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F42">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>0.374</v>
+      </c>
+      <c r="C43">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="D43">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="E43">
+        <v>0.02</v>
+      </c>
+      <c r="F43">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="C44">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="D44">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="E44">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F44">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>0.45</v>
+      </c>
+      <c r="C45">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="D45">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="E45">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F45">
+        <v>0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="C46">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="D46">
+        <v>0.499</v>
+      </c>
+      <c r="E46">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="F46">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <f>(B46-B45)/B45</f>
+        <v>6.6666666666666723E-3</v>
+      </c>
+      <c r="C47">
+        <f>(C46-C45)/C45</f>
+        <v>5.714285714285719E-2</v>
+      </c>
+      <c r="D47">
+        <f>(D46-D45)/D45</f>
+        <v>2.8865979381443325E-2</v>
+      </c>
+      <c r="E47">
+        <f>(E46-E45)/E45</f>
+        <v>0.18749999999999994</v>
+      </c>
+      <c r="F47">
+        <f>(F46-F45)/F45</f>
+        <v>0.26993865030674835</v>
       </c>
     </row>
   </sheetData>
